--- a/carshop/doc/数据库表设计20140806.xlsx
+++ b/carshop/doc/数据库表设计20140806.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="16290" windowHeight="7290" activeTab="6"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="16290" windowHeight="7290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17935" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17935" uniqueCount="699">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2533,15 +2533,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>client_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maketing_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动标题图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不填写则改活动没有标题图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html格式  这里的html显示在活动详细页面中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>open_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>client_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own_no</t>
+    <t>model_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2549,39 +2597,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vehicle_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maketing_event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动标题图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不填写则改活动没有标题图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html格式  这里的html显示在活动详细页面中</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3029,6 +3045,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3041,17 +3060,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3061,6 +3071,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3091,9 +3110,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3456,21 +3472,21 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
@@ -3544,43 +3560,43 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3625,25 +3641,25 @@
       <c r="A2" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>594</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
@@ -3841,51 +3857,51 @@
       <c r="A16" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>615</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickTop="1"/>
   </sheetData>
@@ -3911,7 +3927,7 @@
   <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F35"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3930,25 +3946,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -4094,71 +4110,71 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="29"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="29"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="7" t="s">
@@ -4286,67 +4302,67 @@
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="19"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="19"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="16.5">
       <c r="A37" s="34" t="s">
@@ -4408,7 +4424,7 @@
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="33" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>275</v>
@@ -4424,7 +4440,7 @@
     </row>
     <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>173</v>
@@ -4440,7 +4456,7 @@
     </row>
     <row r="42" spans="1:6" ht="16.5">
       <c r="A42" s="38" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>259</v>
@@ -4456,7 +4472,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5">
       <c r="A43" s="31" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>273</v>
@@ -4510,43 +4526,43 @@
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="19"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="19"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="3"/>
@@ -4568,25 +4584,25 @@
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="7" t="s">
@@ -4826,55 +4842,55 @@
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
     </row>
     <row r="71" spans="1:22" ht="16.5">
       <c r="A71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
     </row>
     <row r="72" spans="1:22" ht="16.5">
       <c r="A72" s="19"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73" spans="1:22" ht="16.5">
       <c r="A73" s="19"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
     </row>
     <row r="78" spans="1:22" ht="16.5">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
       <c r="L78" s="26" t="str">
         <f>CONCATENATE(SUBSTITUTE(PROPER(B78),"_",""),"Vo")</f>
         <v>KnowledgeVo</v>
@@ -4892,13 +4908,13 @@
       <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
       <c r="L79" s="26" t="str">
         <f>CONCATENATE("/** ",B79," **/")</f>
         <v>/** 知识库 **/</v>
@@ -5592,13 +5608,13 @@
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
       <c r="D93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
       <c r="L93" s="26" t="s">
         <v>203</v>
       </c>
@@ -5607,34 +5623,74 @@
       <c r="A94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="51"/>
+      <c r="D94" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
     </row>
     <row r="95" spans="1:22" ht="16.5">
       <c r="A95" s="22"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" spans="1:22" ht="16.5">
       <c r="A96" s="22"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
@@ -5645,46 +5701,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5715,26 +5731,26 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -5925,46 +5941,46 @@
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="14"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="14"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="16.5">
@@ -5980,26 +5996,26 @@
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="16.5">
@@ -7859,46 +7875,58 @@
       <c r="A111" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112" spans="1:11" ht="16.5">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50" t="s">
+      <c r="C112" s="51"/>
+      <c r="D112" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
     </row>
     <row r="113" spans="1:6" ht="16.5">
       <c r="A113" s="32"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
     </row>
     <row r="114" spans="1:6" ht="16.5">
       <c r="A114" s="32"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="B111:C111"/>
@@ -7907,18 +7935,6 @@
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7930,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7949,25 +7965,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -7994,7 +8010,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>698</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>26</v>
@@ -8015,7 +8031,7 @@
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
-        <v>224</v>
+        <v>692</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>29</v>
@@ -8034,7 +8050,7 @@
     </row>
     <row r="6" spans="1:7" s="18" customFormat="1" ht="16.5">
       <c r="A6" s="29" t="s">
-        <v>185</v>
+        <v>693</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>31</v>
@@ -8085,7 +8101,7 @@
     </row>
     <row r="9" spans="1:7" s="18" customFormat="1" ht="16.5">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>40</v>
@@ -8187,7 +8203,7 @@
     </row>
     <row r="15" spans="1:7" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>74</v>
@@ -8251,67 +8267,67 @@
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="14"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="14"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="7" t="s">
@@ -8389,71 +8405,71 @@
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="48"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="30"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="30"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="7" t="s">
@@ -8531,71 +8547,71 @@
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C47" s="49"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="47"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="31"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="31"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="7" t="s">
@@ -8889,67 +8905,67 @@
       <c r="A76" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77" spans="1:6" ht="16.5">
       <c r="A77" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50" t="s">
+      <c r="C77" s="51"/>
+      <c r="D77" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
     </row>
     <row r="78" spans="1:6" ht="16.5">
       <c r="A78" s="32"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
     </row>
     <row r="79" spans="1:6" ht="16.5">
       <c r="A79" s="32"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
     </row>
     <row r="82" spans="1:6" ht="16.5">
       <c r="A82" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="A84" s="7" t="s">
@@ -9245,66 +9261,66 @@
       <c r="A105" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106" spans="1:6" ht="16.5">
       <c r="A106" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50" t="s">
+      <c r="C106" s="51"/>
+      <c r="D106" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
     </row>
     <row r="107" spans="1:6" ht="16.5">
       <c r="A107" s="32"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
     </row>
     <row r="108" spans="1:6" ht="16.5">
       <c r="A108" s="32"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="B36:C36"/>
@@ -9315,26 +9331,26 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9363,25 +9379,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -9545,67 +9561,67 @@
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="32"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="32"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="7" t="s">
@@ -9755,67 +9771,67 @@
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="63" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="32"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="32"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="38" spans="1:6" ht="16.5">
       <c r="A38" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="68" t="s">
         <v>673</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="7" t="s">
@@ -9971,67 +9987,67 @@
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="32"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="32"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
     </row>
     <row r="56" spans="1:6" ht="16.5">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" ht="16.5">
       <c r="A57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="1:6" ht="16.5">
       <c r="A58" s="7" t="s">
@@ -10155,67 +10171,67 @@
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50" t="s">
+      <c r="C67" s="51"/>
+      <c r="D67" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
     </row>
     <row r="68" spans="1:6" ht="16.5">
       <c r="A68" s="32"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69" spans="1:6" ht="16.5">
       <c r="A69" s="32"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73" spans="1:6" ht="16.5">
       <c r="A73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="7" t="s">
@@ -10339,67 +10355,67 @@
       <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50" t="s">
+      <c r="C83" s="51"/>
+      <c r="D83" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="A84" s="32"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
     </row>
     <row r="85" spans="1:6" ht="16.5">
       <c r="A85" s="32"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
     </row>
     <row r="89" spans="1:6" ht="16.5">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90" spans="1:6" ht="16.5">
       <c r="A90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
     </row>
     <row r="91" spans="1:6" ht="16.5">
       <c r="A91" s="7" t="s">
@@ -10527,67 +10543,67 @@
       <c r="A99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" spans="1:6" ht="16.5">
       <c r="A100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50" t="s">
+      <c r="C100" s="51"/>
+      <c r="D100" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
     </row>
     <row r="101" spans="1:6" ht="16.5">
       <c r="A101" s="32"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
     </row>
     <row r="102" spans="1:6" ht="16.5">
       <c r="A102" s="32"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
     </row>
     <row r="105" spans="1:6" ht="16.5">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B105" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106" spans="1:6" ht="16.5">
       <c r="A106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107" spans="1:6" ht="16.5">
       <c r="A107" s="7" t="s">
@@ -59943,25 +59959,25 @@
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
     </row>
     <row r="124" spans="1:16384" ht="16.5">
       <c r="A124" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
     </row>
     <row r="125" spans="1:16384" ht="16.5">
       <c r="A125" s="7" t="s">
@@ -60071,46 +60087,106 @@
       <c r="A132" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="49"/>
-      <c r="C132" s="49"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
       <c r="D132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
     </row>
     <row r="133" spans="1:6" ht="16.5">
       <c r="A133" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50" t="s">
+      <c r="C133" s="51"/>
+      <c r="D133" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
     </row>
     <row r="134" spans="1:6" ht="16.5">
       <c r="A134" s="32"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="48"/>
     </row>
     <row r="135" spans="1:6" ht="16.5">
       <c r="A135" s="32"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="47"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
     <mergeCell ref="B124:F124"/>
     <mergeCell ref="B105:F105"/>
     <mergeCell ref="B106:F106"/>
@@ -60123,66 +60199,6 @@
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="D134:F134"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60193,7 +60209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -60210,25 +60226,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -60344,7 +60360,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="32" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>633</v>
@@ -60353,7 +60369,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="45" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="44" customFormat="1" ht="16.5">
@@ -60370,19 +60386,19 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="68" customFormat="1" ht="16.5">
+    <row r="12" spans="1:6" s="47" customFormat="1" ht="16.5">
       <c r="A12" s="45" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F12" s="45"/>
     </row>
@@ -60472,67 +60488,67 @@
       <c r="A19" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="32"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="32"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
       <c r="A25" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="7" t="s">
@@ -60640,67 +60656,67 @@
       <c r="A33" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="32"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="32"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="38" spans="1:6" ht="16.5">
       <c r="A38" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>653</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="7" t="s">
@@ -60794,67 +60810,67 @@
       <c r="A46" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47" spans="1:6" ht="16.5">
       <c r="A47" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="32"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="32"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="48" t="s">
         <v>659</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="7" t="s">
@@ -60951,67 +60967,67 @@
       <c r="A59" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="1:6" ht="16.5">
       <c r="A60" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50" t="s">
+      <c r="C60" s="51"/>
+      <c r="D60" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
     </row>
     <row r="61" spans="1:6" ht="16.5">
       <c r="A61" s="32"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62" spans="1:6" ht="16.5">
       <c r="A62" s="32"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
     </row>
     <row r="65" spans="1:6" ht="16.5">
       <c r="A65" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="1:6" ht="16.5">
       <c r="A66" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="7" t="s">
@@ -61107,54 +61123,76 @@
       <c r="A73" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50" t="s">
+      <c r="C74" s="51"/>
+      <c r="D74" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
     </row>
     <row r="75" spans="1:6" ht="16.5">
       <c r="A75" s="32"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
     </row>
     <row r="76" spans="1:6" ht="16.5">
       <c r="A76" s="32"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B52:F52"/>
@@ -61167,36 +61205,14 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/carshop/doc/数据库表设计20140806.xlsx
+++ b/carshop/doc/数据库表设计20140806.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="16290" windowHeight="7290" activeTab="4"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="16290" windowHeight="7290" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="车辆" sheetId="4" r:id="rId5"/>
     <sheet name="服务预约" sheetId="12" r:id="rId6"/>
     <sheet name="活动报名" sheetId="13" r:id="rId7"/>
+    <sheet name="车辆数据表" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="sthref221" localSheetId="3">'外部用户|会员'!$C$58</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17935" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18020" uniqueCount="720">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2600,12 +2601,95 @@
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车厂商表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车系名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于哪个厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(32)</t>
+  </si>
+  <si>
+    <t>CHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于哪个系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为暂未知车辆数据的表结构，所以这里先列举出预约功能需要用到的字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_series_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2673,6 +2757,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2688,7 +2780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2897,13 +2989,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,6 +3149,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3110,6 +3214,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3472,21 +3585,21 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
@@ -3560,43 +3673,43 @@
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3641,25 +3754,25 @@
       <c r="A2" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
@@ -3857,51 +3970,51 @@
       <c r="A16" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="49" t="s">
         <v>582</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="58"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickTop="1"/>
   </sheetData>
@@ -3946,25 +4059,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -4110,71 +4223,71 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="64" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="29"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="29"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="7" t="s">
@@ -4302,67 +4415,67 @@
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="64" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="19"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="19"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
     </row>
     <row r="37" spans="1:6" ht="16.5">
       <c r="A37" s="34" t="s">
@@ -4526,43 +4639,43 @@
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="19"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="19"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="3"/>
@@ -4584,25 +4697,25 @@
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="7" t="s">
@@ -4842,55 +4955,55 @@
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
     </row>
     <row r="71" spans="1:22" ht="16.5">
       <c r="A71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="C71" s="52"/>
+      <c r="D71" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:22" ht="16.5">
       <c r="A72" s="19"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
     </row>
     <row r="73" spans="1:22" ht="16.5">
       <c r="A73" s="19"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
     </row>
     <row r="78" spans="1:22" ht="16.5">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
       <c r="L78" s="26" t="str">
         <f>CONCATENATE(SUBSTITUTE(PROPER(B78),"_",""),"Vo")</f>
         <v>KnowledgeVo</v>
@@ -4908,13 +5021,13 @@
       <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
       <c r="L79" s="26" t="str">
         <f>CONCATENATE("/** ",B79," **/")</f>
         <v>/** 知识库 **/</v>
@@ -5608,13 +5721,13 @@
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
       <c r="L93" s="26" t="s">
         <v>203</v>
       </c>
@@ -5623,64 +5736,44 @@
       <c r="A94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51" t="s">
+      <c r="C94" s="52"/>
+      <c r="D94" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
     </row>
     <row r="95" spans="1:22" ht="16.5">
       <c r="A95" s="22"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
     </row>
     <row r="96" spans="1:22" ht="16.5">
       <c r="A96" s="22"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="B96:C96"/>
@@ -5691,16 +5784,36 @@
     <mergeCell ref="E93:F93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:F94"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5731,26 +5844,26 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -5941,46 +6054,46 @@
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="14"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="14"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="16.5">
@@ -5996,26 +6109,26 @@
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="16.5">
@@ -7875,58 +7988,46 @@
       <c r="A111" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
     </row>
     <row r="112" spans="1:11" ht="16.5">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51" t="s">
+      <c r="C112" s="52"/>
+      <c r="D112" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
     </row>
     <row r="113" spans="1:6" ht="16.5">
       <c r="A113" s="32"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
     </row>
     <row r="114" spans="1:6" ht="16.5">
       <c r="A114" s="32"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="B111:C111"/>
@@ -7935,6 +8036,18 @@
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7946,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7965,25 +8078,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>697</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -8267,67 +8380,67 @@
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="14"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="14"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="7" t="s">
@@ -8405,71 +8518,71 @@
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="30"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="30"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="7" t="s">
@@ -8547,71 +8660,71 @@
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="31"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="31"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="7" t="s">
@@ -8905,67 +9018,67 @@
       <c r="A76" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
     </row>
     <row r="77" spans="1:6" ht="16.5">
       <c r="A77" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51" t="s">
+      <c r="C77" s="52"/>
+      <c r="D77" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="1:6" ht="16.5">
       <c r="A78" s="32"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
     </row>
     <row r="79" spans="1:6" ht="16.5">
       <c r="A79" s="32"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
     </row>
     <row r="82" spans="1:6" ht="16.5">
       <c r="A82" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="A84" s="7" t="s">
@@ -9261,46 +9374,86 @@
       <c r="A105" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
     </row>
     <row r="106" spans="1:6" ht="16.5">
       <c r="A106" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
+      <c r="C106" s="52"/>
+      <c r="D106" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:6" ht="16.5">
       <c r="A107" s="32"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
     </row>
     <row r="108" spans="1:6" ht="16.5">
       <c r="A108" s="32"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="B50:C50"/>
@@ -9311,46 +9464,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9362,7 +9475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD135"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -9379,25 +9492,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -9561,67 +9674,67 @@
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="32"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="32"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="7" t="s">
@@ -9771,67 +9884,67 @@
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="64" t="s">
+      <c r="C33" s="66"/>
+      <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="65"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="32"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="32"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="16.5">
       <c r="A38" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="69" t="s">
         <v>673</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="7" t="s">
@@ -9987,67 +10100,67 @@
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="32"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="32"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
     </row>
     <row r="56" spans="1:6" ht="16.5">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6" ht="16.5">
       <c r="A57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6" ht="16.5">
       <c r="A58" s="7" t="s">
@@ -10171,67 +10284,67 @@
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="C67" s="52"/>
+      <c r="D67" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
     </row>
     <row r="68" spans="1:6" ht="16.5">
       <c r="A68" s="32"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6" ht="16.5">
       <c r="A69" s="32"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
     </row>
     <row r="73" spans="1:6" ht="16.5">
       <c r="A73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="7" t="s">
@@ -10355,67 +10468,67 @@
       <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51" t="s">
+      <c r="C83" s="52"/>
+      <c r="D83" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="A84" s="32"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
     </row>
     <row r="85" spans="1:6" ht="16.5">
       <c r="A85" s="32"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
     </row>
     <row r="89" spans="1:6" ht="16.5">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
     </row>
     <row r="90" spans="1:6" ht="16.5">
       <c r="A90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
     </row>
     <row r="91" spans="1:6" ht="16.5">
       <c r="A91" s="7" t="s">
@@ -10543,67 +10656,67 @@
       <c r="A99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
     </row>
     <row r="100" spans="1:6" ht="16.5">
       <c r="A100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
+      <c r="C100" s="52"/>
+      <c r="D100" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
     </row>
     <row r="101" spans="1:6" ht="16.5">
       <c r="A101" s="32"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
     </row>
     <row r="102" spans="1:6" ht="16.5">
       <c r="A102" s="32"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
     </row>
     <row r="105" spans="1:6" ht="16.5">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
     </row>
     <row r="106" spans="1:6" ht="16.5">
       <c r="A106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
     </row>
     <row r="107" spans="1:6" ht="16.5">
       <c r="A107" s="7" t="s">
@@ -59959,25 +60072,25 @@
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49"/>
     </row>
     <row r="124" spans="1:16384" ht="16.5">
       <c r="A124" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
     </row>
     <row r="125" spans="1:16384" ht="16.5">
       <c r="A125" s="7" t="s">
@@ -60087,46 +60200,106 @@
       <c r="A132" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
     </row>
     <row r="133" spans="1:6" ht="16.5">
       <c r="A133" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51" t="s">
+      <c r="C133" s="52"/>
+      <c r="D133" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="51"/>
-      <c r="F133" s="51"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:6" ht="16.5">
       <c r="A134" s="32"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
     </row>
     <row r="135" spans="1:6" ht="16.5">
       <c r="A135" s="32"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -60139,66 +60312,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:F134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60209,8 +60322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60226,25 +60339,25 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>685</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -60488,67 +60601,67 @@
       <c r="A19" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="32"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="32"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>642</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
       <c r="A25" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>643</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="7" t="s">
@@ -60656,67 +60769,67 @@
       <c r="A33" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="32"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="32"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="16.5">
       <c r="A38" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="7" t="s">
@@ -60810,67 +60923,67 @@
       <c r="A46" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:6" ht="16.5">
       <c r="A47" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="32"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="32"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="49" t="s">
         <v>658</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="49" t="s">
         <v>659</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="7" t="s">
@@ -60967,67 +61080,67 @@
       <c r="A59" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6" ht="16.5">
       <c r="A60" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
+      <c r="C60" s="52"/>
+      <c r="D60" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="16.5">
       <c r="A61" s="32"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6" ht="16.5">
       <c r="A62" s="32"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="65" spans="1:6" ht="16.5">
       <c r="A65" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="49" t="s">
         <v>665</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6" ht="16.5">
       <c r="A66" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="49" t="s">
         <v>643</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="7" t="s">
@@ -61123,46 +61236,84 @@
       <c r="A73" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51" t="s">
+      <c r="C74" s="52"/>
+      <c r="D74" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="16.5">
       <c r="A75" s="32"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
     </row>
     <row r="76" spans="1:6" ht="16.5">
       <c r="A76" s="32"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -61175,48 +61326,459 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="39.75" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="57" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" s="47" customFormat="1" ht="16.5">
+      <c r="A2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="48" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="12" spans="1:6" s="47" customFormat="1" ht="16.5">
+      <c r="A12" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="23" spans="1:6" s="47" customFormat="1" ht="16.5">
+      <c r="A23" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="A27" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28" s="48" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>